--- a/rooms_only_sum.xlsx
+++ b/rooms_only_sum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="34">
   <si>
     <t>HOURS_UNITS</t>
   </si>
@@ -40,36 +40,36 @@
     <t>atrium</t>
   </si>
   <si>
+    <t>meditation</t>
+  </si>
+  <si>
+    <t>uptown</t>
+  </si>
+  <si>
+    <t>east-oak</t>
+  </si>
+  <si>
+    <t>west-oak</t>
+  </si>
+  <si>
+    <t>courtyard</t>
+  </si>
+  <si>
+    <t>meridian</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
     <t>jingletown</t>
   </si>
   <si>
-    <t>west-oak</t>
-  </si>
-  <si>
-    <t>uptown</t>
-  </si>
-  <si>
-    <t>meditation</t>
-  </si>
-  <si>
-    <t>meridian</t>
-  </si>
-  <si>
-    <t>courtyard</t>
-  </si>
-  <si>
     <t>broadway</t>
   </si>
   <si>
-    <t>downtown</t>
-  </si>
-  <si>
     <t>omi</t>
   </si>
   <si>
-    <t>east-oak</t>
-  </si>
-  <si>
     <t>Full</t>
   </si>
   <si>
@@ -106,10 +106,10 @@
     <t>partnership</t>
   </si>
   <si>
+    <t>reoccuring</t>
+  </si>
+  <si>
     <t>waived</t>
-  </si>
-  <si>
-    <t>reoccuring</t>
   </si>
   <si>
     <t>returning-client</t>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,126 +534,126 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>840</v>
+        <v>980</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>3150</v>
+        <v>840</v>
       </c>
       <c r="G5">
-        <v>2520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>1237.5</v>
+        <v>3150</v>
       </c>
       <c r="G6">
-        <v>1113.75</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>5.5</v>
       </c>
       <c r="F7">
-        <v>825</v>
+        <v>1237.5</v>
       </c>
       <c r="G7">
-        <v>825</v>
+        <v>1113.75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="F8">
-        <v>2880</v>
+        <v>825</v>
       </c>
       <c r="G8">
-        <v>864</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>34.5</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>3967.5</v>
+        <v>2880</v>
       </c>
       <c r="G9">
-        <v>3863.25</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>34.5</v>
       </c>
       <c r="F10">
-        <v>220</v>
+        <v>3967.5</v>
       </c>
       <c r="G10">
-        <v>220</v>
+        <v>3863.25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -661,52 +661,52 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>585</v>
+        <v>220</v>
       </c>
       <c r="G11">
-        <v>497.25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>23.5</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>2675</v>
+        <v>585</v>
       </c>
       <c r="G12">
-        <v>2504.5</v>
+        <v>497.25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>25.5</v>
       </c>
       <c r="F13">
-        <v>140</v>
+        <v>2955</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2644.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,16 +714,16 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>725</v>
+        <v>360</v>
       </c>
       <c r="G14">
-        <v>616.25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -731,52 +731,52 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F15">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="G15">
-        <v>283.5</v>
+        <v>616.25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="F16">
-        <v>3300</v>
+        <v>630</v>
       </c>
       <c r="G16">
-        <v>2951.25</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17">
-        <v>2745</v>
+        <v>3300</v>
       </c>
       <c r="G17">
-        <v>506.25</v>
+        <v>2951.25</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -784,16 +784,16 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>2182.5</v>
+        <v>3870</v>
       </c>
       <c r="G18">
-        <v>1964.25</v>
+        <v>1068.75</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -801,35 +801,33 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="F19">
-        <v>1845</v>
+        <v>3982.5</v>
       </c>
       <c r="G19">
-        <v>682.5</v>
+        <v>3117.375</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E20">
-        <v>39.5</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>6330</v>
+        <v>1845</v>
       </c>
       <c r="G20">
-        <v>6330</v>
+        <v>682.5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -837,75 +835,69 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>864</v>
+        <v>675</v>
       </c>
       <c r="G21">
-        <v>432</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>45.5</v>
       </c>
       <c r="F22">
-        <v>3600</v>
+        <v>7230</v>
       </c>
       <c r="G22">
-        <v>2817</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>9795</v>
+        <v>864</v>
       </c>
       <c r="G23">
-        <v>9159.5</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>24.5</v>
       </c>
       <c r="F24">
-        <v>4920</v>
+        <v>3975</v>
       </c>
       <c r="G24">
-        <v>4182</v>
+        <v>3154.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -913,71 +905,75 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>15.5</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>3255</v>
+        <v>540</v>
       </c>
       <c r="G25">
-        <v>1342.95</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F26">
-        <v>4410</v>
+        <v>9795</v>
       </c>
       <c r="G26">
-        <v>3339</v>
+        <v>9159.5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>5.5</v>
+        <v>24.5</v>
       </c>
       <c r="F27">
-        <v>1732.5</v>
+        <v>4920</v>
       </c>
       <c r="G27">
-        <v>1559.25</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="F28">
-        <v>4095</v>
+        <v>1575</v>
       </c>
       <c r="G28">
-        <v>3772.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -985,71 +981,71 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>48</v>
+        <v>15.5</v>
       </c>
       <c r="F29">
-        <v>12240</v>
+        <v>3255</v>
       </c>
       <c r="G29">
-        <v>5610</v>
+        <v>1342.95</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F30">
-        <v>1785</v>
+        <v>4410</v>
       </c>
       <c r="G30">
-        <v>249.9</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>49.5</v>
+        <v>5.5</v>
       </c>
       <c r="F31">
-        <v>9685</v>
+        <v>1732.5</v>
       </c>
       <c r="G31">
-        <v>9685</v>
+        <v>1559.25</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>1190</v>
+        <v>4095</v>
       </c>
       <c r="G32">
-        <v>610.4</v>
+        <v>3772.5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1057,16 +1053,16 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F33">
-        <v>1275</v>
+        <v>12240</v>
       </c>
       <c r="G33">
-        <v>956.25</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1074,35 +1070,37 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>1180</v>
+        <v>1785</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>249.9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35">
-        <v>52</v>
+        <v>49.5</v>
       </c>
       <c r="F35">
-        <v>9246</v>
+        <v>9685</v>
       </c>
       <c r="G35">
-        <v>9037.2</v>
+        <v>9685</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1113,13 +1111,13 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="F36">
-        <v>360</v>
+        <v>1190</v>
       </c>
       <c r="G36">
-        <v>360</v>
+        <v>610.4</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1127,16 +1125,16 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>3885</v>
+        <v>1275</v>
       </c>
       <c r="G37">
-        <v>2038.95</v>
+        <v>956.25</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1144,33 +1142,35 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>7.25</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>1425</v>
+        <v>1180</v>
       </c>
       <c r="G38">
-        <v>1211.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>22.4</v>
+        <v>74</v>
       </c>
       <c r="F39">
-        <v>4452</v>
+        <v>13693.5</v>
       </c>
       <c r="G39">
-        <v>1537.8</v>
+        <v>13282.2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1178,35 +1178,33 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>1380</v>
+        <v>900</v>
       </c>
       <c r="G40">
-        <v>877.8</v>
+        <v>397.8</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F41">
-        <v>33627.5</v>
+        <v>4725</v>
       </c>
       <c r="G41">
-        <v>32624.75</v>
+        <v>2878.95</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1214,16 +1212,16 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>7.25</v>
       </c>
       <c r="F42">
-        <v>590</v>
+        <v>1425</v>
       </c>
       <c r="G42">
-        <v>401.2</v>
+        <v>1211.25</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1231,33 +1229,35 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>22.4</v>
       </c>
       <c r="F43">
-        <v>4517.5</v>
+        <v>4452</v>
       </c>
       <c r="G43">
-        <v>3293.875</v>
+        <v>1537.8</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F44">
-        <v>5105</v>
+        <v>38902.5</v>
       </c>
       <c r="G44">
-        <v>4786.25</v>
+        <v>37899.75</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1265,16 +1265,16 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>38.5</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>11687.5</v>
+        <v>590</v>
       </c>
       <c r="G45">
-        <v>4575.85</v>
+        <v>401.2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1282,16 +1282,16 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>26.5</v>
       </c>
       <c r="F46">
-        <v>945</v>
+        <v>6880</v>
       </c>
       <c r="G46">
-        <v>378</v>
+        <v>4490.125</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1299,16 +1299,16 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F47">
-        <v>590</v>
+        <v>7625</v>
       </c>
       <c r="G47">
-        <v>590</v>
+        <v>7306.25</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1316,35 +1316,33 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E48">
-        <v>11.5</v>
+        <v>38.5</v>
       </c>
       <c r="F48">
-        <v>3392.5</v>
+        <v>11687.5</v>
       </c>
       <c r="G48">
-        <v>1268.5</v>
+        <v>4575.85</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>25425</v>
+        <v>1890</v>
       </c>
       <c r="G49">
-        <v>24163.75</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1352,16 +1350,16 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>765</v>
+        <v>1475</v>
       </c>
       <c r="G50">
-        <v>344.25</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1369,33 +1367,35 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="F51">
-        <v>1147.5</v>
+        <v>3392.5</v>
       </c>
       <c r="G51">
-        <v>860.625</v>
+        <v>1268.5</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>27.5</v>
+        <v>116.5</v>
       </c>
       <c r="F52">
-        <v>6772.5</v>
+        <v>27351.5</v>
       </c>
       <c r="G52">
-        <v>6067.5</v>
+        <v>26090.25</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1403,39 +1403,33 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F53">
-        <v>1695</v>
+        <v>1552.5</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>934.875</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F54">
-        <v>240</v>
+        <v>1147.5</v>
       </c>
       <c r="G54">
-        <v>240</v>
+        <v>860.625</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1446,36 +1440,30 @@
         <v>25</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>240</v>
+        <v>7335</v>
       </c>
       <c r="G55">
-        <v>216</v>
+        <v>6573.75</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>150</v>
+        <v>1695</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1485,27 +1473,37 @@
       <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>765</v>
+      </c>
       <c r="G57">
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>665</v>
+        <v>240</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1513,29 +1511,39 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>240</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1543,56 +1551,40 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-      <c r="F61">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="G61">
-        <v>283.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62">
-        <v>200</v>
+        <v>665</v>
       </c>
       <c r="G62">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="G63">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1605,115 +1597,117 @@
         <v>20</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F64">
-        <v>1035</v>
+        <v>525</v>
       </c>
       <c r="G64">
-        <v>855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="F65">
-        <v>302.5</v>
+        <v>315</v>
       </c>
       <c r="G65">
-        <v>302.5</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D66" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>22.5</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>1117.5</v>
+        <v>200</v>
       </c>
       <c r="G66">
-        <v>1046</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="G67">
-        <v>330</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E68">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="G68">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F69">
-        <v>35</v>
+        <v>1035</v>
       </c>
       <c r="G69">
-        <v>35</v>
+        <v>855</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>22</v>
       </c>
@@ -1721,36 +1715,30 @@
         <v>20</v>
       </c>
       <c r="E70">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="F70">
-        <v>297.5</v>
+        <v>302.5</v>
       </c>
       <c r="G70">
-        <v>297.5</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>690</v>
+        <v>1475</v>
       </c>
       <c r="G71">
-        <v>690</v>
+        <v>1314.125</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1758,105 +1746,115 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E72">
+        <v>5.5</v>
+      </c>
+      <c r="F72">
+        <v>357.5</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>268.125</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F74">
-        <v>3024</v>
+        <v>350</v>
       </c>
       <c r="G74">
-        <v>2570.4</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D75" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>990</v>
+        <v>170</v>
       </c>
       <c r="G75">
-        <v>891</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="F76">
-        <v>925</v>
+        <v>297.5</v>
       </c>
       <c r="G76">
-        <v>925</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>315</v>
+        <v>690</v>
       </c>
       <c r="G77">
-        <v>267.75</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1864,13 +1862,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -1880,36 +1872,38 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F79">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="G79">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D80" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E80">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="F80">
-        <v>1410</v>
+        <v>3024</v>
       </c>
       <c r="G80">
-        <v>1329</v>
+        <v>2570.4</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1917,98 +1911,92 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F81">
-        <v>300</v>
+        <v>990</v>
       </c>
       <c r="G81">
-        <v>225</v>
+        <v>891</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E82">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>287.5</v>
+        <v>925</v>
       </c>
       <c r="G82">
-        <v>287.5</v>
+        <v>925</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D83" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="F83">
-        <v>1732.5</v>
+        <v>315</v>
       </c>
       <c r="G83">
-        <v>1385.25</v>
+        <v>267.75</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>105</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84">
-        <v>5</v>
-      </c>
-      <c r="F84">
-        <v>75</v>
-      </c>
-      <c r="G84">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E85">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="G85">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2016,56 +2004,52 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F86">
-        <v>5885</v>
+        <v>2220</v>
       </c>
       <c r="G86">
-        <v>4708</v>
+        <v>1936.5</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E88">
-        <v>40</v>
+        <v>5.5</v>
       </c>
       <c r="F88">
-        <v>1800</v>
+        <v>632.5</v>
       </c>
       <c r="G88">
-        <v>1800</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2073,83 +2057,97 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89">
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <v>2020</v>
+      </c>
+      <c r="G89">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>75</v>
+      </c>
+      <c r="G90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>1200</v>
+      </c>
+      <c r="G91">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89">
-        <v>180</v>
-      </c>
-      <c r="G89">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90">
-        <v>135</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91">
-        <v>12.5</v>
-      </c>
-      <c r="F91">
-        <v>1427.5</v>
-      </c>
-      <c r="G91">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E92">
-        <v>13.5</v>
+        <v>130</v>
       </c>
       <c r="F92">
-        <v>1147.5</v>
+        <v>5885</v>
       </c>
       <c r="G92">
-        <v>1083.75</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>180</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -2158,41 +2156,51 @@
     <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>1800</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="G95">
-        <v>390</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>135</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2200,59 +2208,55 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E97">
+        <v>12.5</v>
+      </c>
+      <c r="F97">
+        <v>1427.5</v>
+      </c>
+      <c r="G97">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F97">
-        <v>1285</v>
-      </c>
-      <c r="G97">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D98" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="F98">
-        <v>345</v>
+        <v>1147.5</v>
       </c>
       <c r="G98">
-        <v>293.25</v>
+        <v>1083.75</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99">
-        <v>49.5</v>
-      </c>
-      <c r="F99">
-        <v>3075</v>
+        <v>27</v>
       </c>
       <c r="G99">
-        <v>3057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2260,13 +2264,7 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -2275,54 +2273,54 @@
     <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D101" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F101">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="G101">
-        <v>306</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D102" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
-      </c>
-      <c r="F102">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="G102">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C103" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>20.5</v>
       </c>
       <c r="F103">
-        <v>1850</v>
+        <v>1582.5</v>
       </c>
       <c r="G103">
-        <v>1691.5</v>
+        <v>1582.5</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2330,52 +2328,52 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>760</v>
+        <v>345</v>
       </c>
       <c r="G104">
-        <v>599</v>
+        <v>293.25</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>49.5</v>
       </c>
       <c r="F105">
-        <v>937.5</v>
+        <v>3075</v>
       </c>
       <c r="G105">
-        <v>210</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>1095</v>
+        <v>360</v>
       </c>
       <c r="G106">
-        <v>922.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2383,16 +2381,16 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F107">
         <v>360</v>
       </c>
       <c r="G107">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2400,60 +2398,52 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E108">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>1450</v>
+        <v>120</v>
       </c>
       <c r="G108">
-        <v>1305</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E109">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="F109">
-        <v>935</v>
+        <v>1850</v>
       </c>
       <c r="G109">
-        <v>796</v>
+        <v>1691.5</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="F110">
-        <v>780</v>
+        <v>1967.5</v>
       </c>
       <c r="G110">
-        <v>1197</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2461,26 +2451,24 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="F111">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -2489,24 +2477,26 @@
         <v>345</v>
       </c>
       <c r="G112">
-        <v>345</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F113">
-        <v>575</v>
+        <v>1095</v>
       </c>
       <c r="G113">
-        <v>546.25</v>
+        <v>922.5</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2514,120 +2504,269 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="G114">
-        <v>127.5</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115">
+        <v>18.5</v>
+      </c>
+      <c r="F115">
+        <v>1662.5</v>
+      </c>
+      <c r="G115">
+        <v>1496.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>255</v>
+      </c>
+      <c r="G116">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>14.5</v>
+      </c>
+      <c r="F117">
+        <v>935</v>
+      </c>
+      <c r="G117">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
+      </c>
+      <c r="F118">
+        <v>780</v>
+      </c>
+      <c r="G118">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>70</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>345</v>
+      </c>
+      <c r="G120">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>575</v>
+      </c>
+      <c r="G121">
+        <v>546.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>170</v>
+      </c>
+      <c r="G122">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115">
+      <c r="D123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
         <v>6.5</v>
       </c>
-      <c r="F115">
+      <c r="F123">
         <v>422.5</v>
       </c>
-      <c r="G115">
+      <c r="G123">
         <v>422.5</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E116">
+      <c r="E124">
         <v>11.5</v>
       </c>
-      <c r="F116">
+      <c r="F124">
         <v>402.5</v>
       </c>
-      <c r="G116">
+      <c r="G124">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A23:A53"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A92:A108"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B31:B53"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
+  <mergeCells count="59">
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="A26:A57"/>
+    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B35:B57"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B103:B116"/>
+    <mergeCell ref="B10:B25"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C57"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
